--- a/500all/speech_level/speeches_CHRG-114hhrg93912.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. The subcommittee will come to order. Chairman Duncan is attending to a family emergency and has asked me to chair today's meeting in his place. We wish him and his family well.    After recognizing myself and my good friend, Ranking Member Sires, for 5 minutes, each for our opening statements, I will then recognize other members who might seek recognition for 1 minute. We will then hear from our witnesses.    Thank you ladies for being here. Without objection, the witnesses' prepared statements will be made a part of the record. Members may have 5 days to insert statements and questions for the record subject to the length limitation in the rules. The chair now recognizes herself for 5 minutes.    As we scrutinize the Fiscal Year 2016 budget proposals for the Western Hemisphere, we must fully analyze how we are advancing U.S. interests in the region. While the administration may condemn human rights violations, attacks on the press, and biased judicial systems, it still continues to placate to rogue regimes in the Hemisphere who face zero consequences.    In Nicaragua, Daniel Ortega is running for a third term after pushing through constitutional changes to allow consecutive re-elections in violation of the Nicaraguan constitution. Ortega is using the facade of the Canal Project to be able to fund money to his own pockets and possibly expropriate lands along the canal. In December, the Nicaraguan people who live along the canal protested the project and were met with repression and violence at the hands of the Ortega regime. Ecuador's Rafael Correa and Bolivia's Evo Morales are already in their third terms after manipulating the legislatures and rewriting the constitution and election laws in their countries for their own political agenda. At the same time, Correa and Morales have kicked out USAID in their countries causing USAID to be timid in closed societies throughout the Hemisphere and hurting its mission.    Argentina's Cristina Kirchner is currently being investigated for her possible involvement in covering up Iran's role in the 1994 AMIA bombing even as more questions arise surrounding the murder of Alberto Nisman.    And in Venezuela, Nicolas Maduro has run the economy almost completely into the ground while quashing dissent, violating the human rights of the Venezuela people on a daily basis. Although Maduro and his thugs have finally been sanctioned by the administration, it only occurred because this committee and Congress strongly pushed for those punitive actions to be taken.    The common theme in all of these countries, other than the greed, corruption, and thirst for power, is the manner in which these leaders have stayed in control and suppressed civil society. It is a playbook learned from Cuba, the same Cuba with which the President has reversed decades of U.S. policy and has given away almost all of our leverage in return for nothing.    Dictators in the region have learned from and studied the methods of the Castro brothers. They have learned how to control the media, silence the opposition, and they have learned how to impose their will by instilling fear in people. They have learned the elections, even corrupt and illegitimate elections, are often enough to appease the international community and for critics to look the other way, knowing that once they are in power they can just change the rules of the game without consequences.    They know that the Organization of American States despite its inter-American democratic charter will do nothing to hold them accountable. And they know that the Obama administration will continue trying to appease and engage, hoping that if they keep playing nice then maybe these tyrants will stop taking advantage of them.    People in Latin America are crying out for the United States to finally stand up and say loudly and clearly that we know that leaders are manipulating the democratic process and are repressing fundamental human rights, and they want us to do everything in our power to hold those leaders accountable.    As we examine the budget, I am concerned that it does not reflect those priorities. Democracy and governance programs in Latin America are always on the chopping block when funds are needed at State and USAID and this is unacceptable.    In Central America I question whether or not our Embassies and host countries are prepared to handle such a large increase in funding from one fiscal year to another. In Cuba, I am concerned that the $20 million requested by the administration will be undermined by the misguided normalization talks, and the implementation of these democracy programs may be in jeopardy due to the demands from Havana.    In Venezuela that is desperately and increasingly in need of assistance, I am concerned that the administration has not requested more resources to help civil society. In Haiti with elections around the corner, I do not understand why we cut INCLE funds in half when so much assistance is needed for the Haitian National Police as we gear up for the upcoming elections.    We must ensure that we are funding priorities and addressing the root causes of problems throughout the Hemisphere on the governance and security fronts. Drug trafficking is a key piece of terrorist financing and we must have reliable partners with whom we can work to disrupt narcoterror networks and transnational criminal groups.    The administration must work harder to hold bad actors responsible, whether that is through increased pressure at international organizations, through bilateral relations or additional sanctions and blocking of assets. And we should be stepping up our democracy and governance programs in response to regional challenges rather than withdrawing when the going gets tough.    And with that, I am pleased to yield to my good friend from New Jersey, the ranking member Mr. Sires.</t>
   </si>
   <si>
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Madam Chair, for holding this hearing, and thank you to our witnesses for being here to talk about the administration's Fiscal Year 2016 requests for Latin America and the Caribbean. Today's hearing occurs at a time of complex foreign policy challenges in a region that has evolved to become increasingly less reliant on the United States.    While I do not believe that the U.S. is implicitly attempting to disengage from the Western Hemisphere, years of focus elsewhere have come at the expense of our policy toward the Americas. However, recent turmoil throughout the region, including growing instability in the Northern Triangle and the Venezuelan Government's hostile and violent actions toward its own civilians, has prompted us to take a closer look at our own backyard. I am pleased that the administration's Fiscal Year 2016 request of nearly $2 billion represents a 35-percent increase over the Fiscal Year 2014 level.    It is imperative that we strike a balance between citizen security initiatives and traditional development programs that can ensure peace and economic prosperity. Drug trafficking and organized crime that plagues the Northern Triangle of Central America is wreaking havoc in the region and poses security threats for the entire Hemisphere, especially the U.S.    Disparity is abundant with nearly 30 percent of the region's population living in poverty. Each year hundreds die along the southern border in their aspiration for a better life crossing into the U.S. while others remain threatened by cartel violence. With the exception of Cuba, democracy in the Hemisphere has progressed but is still threatened by organized crime and leaders that have abused executive powers.    Every day in Venezuela, anti-government demonstrators continue to express their frustrations with the deteriorating economic, political, and security conditions in their country. Venezuela continues unabashedly to respond with a heavy hand, backtracking from any progress they had made as to strengthening its democratic institution. We must work together in a bipartisan fashion to ensure that increased budget requests are used efficiently with proper oversight and address root causes of violence and the dysfunction in this region. And I thank you.</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Hogan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Hogan. Thank you very much, Madam Chairman, Ranking Member Sires, and Congresswoman Kelly. Thank you for the invitation to testify before you today and thank you for the committee's continuing support for USAID's work in Latin America and the Caribbean.    As Acting Administrator Lenhardt testified before you last week, USAID's mission across the globe is to partner to end extreme poverty and promote resilient democratic societies. USAID assistance has helped many countries of the region achieve these goals. However, despite major progress in some countries, social development and economic growth have been stymied by the dramatic rise in crime and violence in the Northern Triangle countries of El Salvador, Guatemala, and Honduras. This increase in violent crime is rooted in deep-seated social and economic inequality. It has been fueled by increases in gang violence and transnational crime.    In order to help Central American governments reverse these trends, the U.S. Government has developed an interagency strategy for the region that advances three interrelated objectives--prosperity, security and governance. The President's $1 billion request reflects our shared belief that the United States and Central America need a deeper partnership to tackle insecurity, endemic poverty, and weak governance that impacts our own national security.    First, we must increase support for broad based economic growth. This support includes improving the enabling environment for businesses to invest and grow, advancing trade and regional integration, increasing financing for small and medium enterprises, and connecting small scale farmers to the markets. It also includes a focus on employment programs for disadvantaged youth. Last year I heard from youth in the region about how USAID programs are increasing their security, expanding employment opportunities, and giving them an alternative to gang life or illegal migration.    But beyond these anecdotal testimonies we know that our citizen security programs are working. An independent evaluation concluded that fewer robberies, murders, and extortions are reported in the neighborhoods where USAID is working compared to the control group of similar communities where we are not. We now need to help governments and the private sector take these programs to scale in order to achieve longstanding national impact and national ownership.    At the national level we will provide assistance to strengthen the effectiveness, transparency, and accountability of the institutions that are charged with growing the economy, generating revenue, creating jobs, delivering basic services, ensuring justice and public safety, and protecting human rights. While the challenges ahead are great, we believe the time is right as governments of the Northern Triangle commit themselves to specific time bound policy changes that are needed to justify this increased investment.    Democracy, human rights, and good governance continues to be a high priority for USAID particularly in those countries where basic civil rights are repressed. Our programs in these closed political spaces support and empower civil society and media organizations to build their networks, advocate for citizen-led reforms, and push for greater government transparency, accountability, and effectiveness.    Another continued priority is our work to help the Haitian people build a more prosperous and secure future. We can report that in spite of a very difficult political environment, meaningful progress in Haiti is indeed occurring especially in the areas of health, agriculture, and small business development. For example, 70,000 farmers have increased yields and incomes as a result of USAID assistance.    Finally, we will continue to prioritize, mitigating the economic and social challenges that derive from the harmful effects of climate change. Droughts in Central America and extreme weather events in the Caribbean are linked to rising levels of food insecurity and deeper levels of poverty due to the loss of crops, infrastructure, and income. By adapting and mitigating the negative impacts of climate change, communities will become more resilient and better able to protect their investment.    There is also a very positive trend in the region as the private sector is starting to see that development is good for business. In the past 2 years, USAID has leveraged over $350 million in private sector resources to complement our investments in development. Partnerships with U.S. companies like Chevron, Hanes, Cisco, Intel, and Microsoft all play a vital role in our citizen security work providing education, training, and employment opportunities for at-risk youth.    Increased evidence of political will coupled with proven strategies for success make a compelling case for increased investment that will improve the security and prosperity of the region and at home. Thank you for your time and I look forward to your questions.</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
     <t>412576</t>
   </si>
   <si>
-    <t>Joaquin Castro</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Castro. Thank you, Madam Chair, and thank you for you all's testimony today. Between 2011 and 2014, foreign aid, U.S. foreign aid to Latin America and the Western Hemisphere went down by $400 million. The President has proposed increasing aid to Central America this year by $1.14 billion. And as I mentioned last year, I think that drop in $400 million, well, I don't blame the administration. I think it is also Congress, but we were essentially robbing Peter to pay Paul.    And so let me ask you a question I have asked before about Central America. I want to ask about Mexico. What are we doing to help Mexico combat all of the tragedies that are going on there now? There is a caravan going through the United States right now for the 43 students who were murdered in a small town there, and over the last several years hundreds of Americans have gone into Mexico and have been killed. My colleague Filemon Vela from Brownsville who represents Texas/Mexico border region has been on a crusade to get the United States Government to take a stronger part in doing something about this. So please.    Ambassador Jacobson. Thank you very much, Congressman. And I think this is an incredibly important subject having worked on the Merida Initiative for a number of years now. I think we and the Mexican Government really thought in some ways that our engagement, our initiative with them would be shorter lived than it was; that some of the problems we needed to tackle would be overcome more quickly. But it is clear that the problems they are tackling are very deep and embedded. And the 43 students in Iguala, I think, and the tragedy of their disappearance are a tragedy in and of themselves, but they are also a broader tragedy and that is why they had such resonance in Mexico for a system that still has not delivered justice to people.    So we see, I think, a response by the Mexican Government in terms of changes in whether it is the attorney general, changes in moving forward more aggressively on the transformation of the judicial system, which we are deeply involved in working with them on from an inquisitorial system to an oral adversarial system which is much more transparent, much quicker, fewer cases go to trial and that is very important because not everything must go to trial in terms of minor offenses, and fewer people being held in pretrial detention. As my colleague knows, in the states where USAID has worked on this kind of a transformation, Chihuahua and Nuevo Leon, the conviction rates have gone up and the pretrial detention rates have gone down.    So those are the kinds of things we need to continue to do, but it is a very, very difficult problem. And I think it is important that we remain engaged, and that is what the request level does. It focuses on moving on the Federal efforts that we have made to state levels which are critical. As you know, Mexico is a Federal system as we are, and while there may be 40,000 or so Federal police, there are over 400,000 state and local police in Mexico. And unless we work with the Mexicans on those levels as well, we can't really get at some of the problems going on there. And we feel that the Mexican Government is really ready for us to help in that level too.</t>
   </si>
   <si>
@@ -275,9 +263,6 @@
   </si>
   <si>
     <t>412526</t>
-  </si>
-  <si>
-    <t>Ron DeSantis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you.    Secretary Jacobson, in your opinion have human rights abuses in Cuba increased since the President announced his change in policy in December?    Ambassador Jacobson. In my opinion they have continued. The number of short term detentions has been fairly high. And I don't know whether there has been an increased number of those detentions over the last 3 months, but it has been high over the last year.</t>
@@ -715,11 +700,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -739,13 +722,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -767,11 +748,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -793,11 +772,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -819,11 +796,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -843,13 +818,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -871,11 +844,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -897,11 +868,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -923,11 +892,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -949,11 +916,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -975,11 +940,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1001,11 +964,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1027,11 +988,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1053,11 +1012,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1079,11 +1036,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1105,11 +1060,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1131,11 +1084,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1157,11 +1108,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1183,11 +1132,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1207,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1233,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1259,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1285,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1311,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1337,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1363,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1389,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1415,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1443,11 +1372,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1467,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1493,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1519,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1547,11 +1468,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1571,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" t="s">
-        <v>51</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1597,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" t="s">
-        <v>51</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1623,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
         <v>50</v>
-      </c>
-      <c r="G37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1649,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
         <v>51</v>
-      </c>
-      <c r="H38" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1677,11 +1588,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1703,11 +1612,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1729,11 +1636,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1755,11 +1660,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1781,11 +1684,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1807,11 +1708,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1833,11 +1732,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1859,11 +1756,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1885,11 +1780,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1911,11 +1804,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1937,11 +1828,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1961,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1989,11 +1876,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2013,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2041,11 +1924,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2065,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2091,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2117,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2143,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2169,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2195,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2221,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2247,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2273,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2299,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2325,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2351,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2377,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2403,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2431,11 +2284,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2455,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2481,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
-      </c>
-      <c r="G70" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2507,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2533,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
+        <v>82</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>86</v>
-      </c>
-      <c r="G72" t="s">
-        <v>87</v>
-      </c>
-      <c r="H72" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2559,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" t="s">
+        <v>82</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
         <v>87</v>
-      </c>
-      <c r="H73" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2585,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
-      </c>
-      <c r="G74" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2611,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2637,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2663,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2689,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2715,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
-      </c>
-      <c r="G79" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2741,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2767,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>86</v>
-      </c>
-      <c r="G81" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2795,11 +2620,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93912.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. The subcommittee will come to order. Chairman Duncan is attending to a family emergency and has asked me to chair today's meeting in his place. We wish him and his family well.    After recognizing myself and my good friend, Ranking Member Sires, for 5 minutes, each for our opening statements, I will then recognize other members who might seek recognition for 1 minute. We will then hear from our witnesses.    Thank you ladies for being here. Without objection, the witnesses' prepared statements will be made a part of the record. Members may have 5 days to insert statements and questions for the record subject to the length limitation in the rules. The chair now recognizes herself for 5 minutes.    As we scrutinize the Fiscal Year 2016 budget proposals for the Western Hemisphere, we must fully analyze how we are advancing U.S. interests in the region. While the administration may condemn human rights violations, attacks on the press, and biased judicial systems, it still continues to placate to rogue regimes in the Hemisphere who face zero consequences.    In Nicaragua, Daniel Ortega is running for a third term after pushing through constitutional changes to allow consecutive re-elections in violation of the Nicaraguan constitution. Ortega is using the facade of the Canal Project to be able to fund money to his own pockets and possibly expropriate lands along the canal. In December, the Nicaraguan people who live along the canal protested the project and were met with repression and violence at the hands of the Ortega regime. Ecuador's Rafael Correa and Bolivia's Evo Morales are already in their third terms after manipulating the legislatures and rewriting the constitution and election laws in their countries for their own political agenda. At the same time, Correa and Morales have kicked out USAID in their countries causing USAID to be timid in closed societies throughout the Hemisphere and hurting its mission.    Argentina's Cristina Kirchner is currently being investigated for her possible involvement in covering up Iran's role in the 1994 AMIA bombing even as more questions arise surrounding the murder of Alberto Nisman.    And in Venezuela, Nicolas Maduro has run the economy almost completely into the ground while quashing dissent, violating the human rights of the Venezuela people on a daily basis. Although Maduro and his thugs have finally been sanctioned by the administration, it only occurred because this committee and Congress strongly pushed for those punitive actions to be taken.    The common theme in all of these countries, other than the greed, corruption, and thirst for power, is the manner in which these leaders have stayed in control and suppressed civil society. It is a playbook learned from Cuba, the same Cuba with which the President has reversed decades of U.S. policy and has given away almost all of our leverage in return for nothing.    Dictators in the region have learned from and studied the methods of the Castro brothers. They have learned how to control the media, silence the opposition, and they have learned how to impose their will by instilling fear in people. They have learned the elections, even corrupt and illegitimate elections, are often enough to appease the international community and for critics to look the other way, knowing that once they are in power they can just change the rules of the game without consequences.    They know that the Organization of American States despite its inter-American democratic charter will do nothing to hold them accountable. And they know that the Obama administration will continue trying to appease and engage, hoping that if they keep playing nice then maybe these tyrants will stop taking advantage of them.    People in Latin America are crying out for the United States to finally stand up and say loudly and clearly that we know that leaders are manipulating the democratic process and are repressing fundamental human rights, and they want us to do everything in our power to hold those leaders accountable.    As we examine the budget, I am concerned that it does not reflect those priorities. Democracy and governance programs in Latin America are always on the chopping block when funds are needed at State and USAID and this is unacceptable.    In Central America I question whether or not our Embassies and host countries are prepared to handle such a large increase in funding from one fiscal year to another. In Cuba, I am concerned that the $20 million requested by the administration will be undermined by the misguided normalization talks, and the implementation of these democracy programs may be in jeopardy due to the demands from Havana.    In Venezuela that is desperately and increasingly in need of assistance, I am concerned that the administration has not requested more resources to help civil society. In Haiti with elections around the corner, I do not understand why we cut INCLE funds in half when so much assistance is needed for the Haitian National Police as we gear up for the upcoming elections.    We must ensure that we are funding priorities and addressing the root causes of problems throughout the Hemisphere on the governance and security fronts. Drug trafficking is a key piece of terrorist financing and we must have reliable partners with whom we can work to disrupt narcoterror networks and transnational criminal groups.    The administration must work harder to hold bad actors responsible, whether that is through increased pressure at international organizations, through bilateral relations or additional sanctions and blocking of assets. And we should be stepping up our democracy and governance programs in response to regional challenges rather than withdrawing when the going gets tough.    And with that, I am pleased to yield to my good friend from New Jersey, the ranking member Mr. Sires.</t>
   </si>
   <si>
     <t>412186</t>
   </si>
   <si>
+    <t>Sires</t>
+  </si>
+  <si>
+    <t>Albio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Madam Chair, for holding this hearing, and thank you to our witnesses for being here to talk about the administration's Fiscal Year 2016 requests for Latin America and the Caribbean. Today's hearing occurs at a time of complex foreign policy challenges in a region that has evolved to become increasingly less reliant on the United States.    While I do not believe that the U.S. is implicitly attempting to disengage from the Western Hemisphere, years of focus elsewhere have come at the expense of our policy toward the Americas. However, recent turmoil throughout the region, including growing instability in the Northern Triangle and the Venezuelan Government's hostile and violent actions toward its own civilians, has prompted us to take a closer look at our own backyard. I am pleased that the administration's Fiscal Year 2016 request of nearly $2 billion represents a 35-percent increase over the Fiscal Year 2014 level.    It is imperative that we strike a balance between citizen security initiatives and traditional development programs that can ensure peace and economic prosperity. Drug trafficking and organized crime that plagues the Northern Triangle of Central America is wreaking havoc in the region and poses security threats for the entire Hemisphere, especially the U.S.    Disparity is abundant with nearly 30 percent of the region's population living in poverty. Each year hundreds die along the southern border in their aspiration for a better life crossing into the U.S. while others remain threatened by cartel violence. With the exception of Cuba, democracy in the Hemisphere has progressed but is still threatened by organized crime and leaders that have abused executive powers.    Every day in Venezuela, anti-government demonstrators continue to express their frustrations with the deteriorating economic, political, and security conditions in their country. Venezuela continues unabashedly to respond with a heavy hand, backtracking from any progress they had made as to strengthening its democratic institution. We must work together in a bipartisan fashion to ensure that increased budget requests are used efficiently with proper oversight and address root causes of violence and the dysfunction in this region. And I thank you.</t>
   </si>
   <si>
@@ -73,6 +88,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Hogan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Hogan. Thank you very much, Madam Chairman, Ranking Member Sires, and Congresswoman Kelly. Thank you for the invitation to testify before you today and thank you for the committee's continuing support for USAID's work in Latin America and the Caribbean.    As Acting Administrator Lenhardt testified before you last week, USAID's mission across the globe is to partner to end extreme poverty and promote resilient democratic societies. USAID assistance has helped many countries of the region achieve these goals. However, despite major progress in some countries, social development and economic growth have been stymied by the dramatic rise in crime and violence in the Northern Triangle countries of El Salvador, Guatemala, and Honduras. This increase in violent crime is rooted in deep-seated social and economic inequality. It has been fueled by increases in gang violence and transnational crime.    In order to help Central American governments reverse these trends, the U.S. Government has developed an interagency strategy for the region that advances three interrelated objectives--prosperity, security and governance. The President's $1 billion request reflects our shared belief that the United States and Central America need a deeper partnership to tackle insecurity, endemic poverty, and weak governance that impacts our own national security.    First, we must increase support for broad based economic growth. This support includes improving the enabling environment for businesses to invest and grow, advancing trade and regional integration, increasing financing for small and medium enterprises, and connecting small scale farmers to the markets. It also includes a focus on employment programs for disadvantaged youth. Last year I heard from youth in the region about how USAID programs are increasing their security, expanding employment opportunities, and giving them an alternative to gang life or illegal migration.    But beyond these anecdotal testimonies we know that our citizen security programs are working. An independent evaluation concluded that fewer robberies, murders, and extortions are reported in the neighborhoods where USAID is working compared to the control group of similar communities where we are not. We now need to help governments and the private sector take these programs to scale in order to achieve longstanding national impact and national ownership.    At the national level we will provide assistance to strengthen the effectiveness, transparency, and accountability of the institutions that are charged with growing the economy, generating revenue, creating jobs, delivering basic services, ensuring justice and public safety, and protecting human rights. While the challenges ahead are great, we believe the time is right as governments of the Northern Triangle commit themselves to specific time bound policy changes that are needed to justify this increased investment.    Democracy, human rights, and good governance continues to be a high priority for USAID particularly in those countries where basic civil rights are repressed. Our programs in these closed political spaces support and empower civil society and media organizations to build their networks, advocate for citizen-led reforms, and push for greater government transparency, accountability, and effectiveness.    Another continued priority is our work to help the Haitian people build a more prosperous and secure future. We can report that in spite of a very difficult political environment, meaningful progress in Haiti is indeed occurring especially in the areas of health, agriculture, and small business development. For example, 70,000 farmers have increased yields and incomes as a result of USAID assistance.    Finally, we will continue to prioritize, mitigating the economic and social challenges that derive from the harmful effects of climate change. Droughts in Central America and extreme weather events in the Caribbean are linked to rising levels of food insecurity and deeper levels of poverty due to the loss of crops, infrastructure, and income. By adapting and mitigating the negative impacts of climate change, communities will become more resilient and better able to protect their investment.    There is also a very positive trend in the region as the private sector is starting to see that development is good for business. In the past 2 years, USAID has leveraged over $350 million in private sector resources to complement our investments in development. Partnerships with U.S. companies like Chevron, Hanes, Cisco, Intel, and Microsoft all play a vital role in our citizen security work providing education, training, and employment opportunities for at-risk youth.    Increased evidence of political will coupled with proven strategies for success make a compelling case for increased investment that will improve the security and prosperity of the region and at home. Thank you for your time and I look forward to your questions.</t>
   </si>
   <si>
@@ -160,6 +178,12 @@
     <t>412576</t>
   </si>
   <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Joaquin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Castro. Thank you, Madam Chair, and thank you for you all's testimony today. Between 2011 and 2014, foreign aid, U.S. foreign aid to Latin America and the Western Hemisphere went down by $400 million. The President has proposed increasing aid to Central America this year by $1.14 billion. And as I mentioned last year, I think that drop in $400 million, well, I don't blame the administration. I think it is also Congress, but we were essentially robbing Peter to pay Paul.    And so let me ask you a question I have asked before about Central America. I want to ask about Mexico. What are we doing to help Mexico combat all of the tragedies that are going on there now? There is a caravan going through the United States right now for the 43 students who were murdered in a small town there, and over the last several years hundreds of Americans have gone into Mexico and have been killed. My colleague Filemon Vela from Brownsville who represents Texas/Mexico border region has been on a crusade to get the United States Government to take a stronger part in doing something about this. So please.    Ambassador Jacobson. Thank you very much, Congressman. And I think this is an incredibly important subject having worked on the Merida Initiative for a number of years now. I think we and the Mexican Government really thought in some ways that our engagement, our initiative with them would be shorter lived than it was; that some of the problems we needed to tackle would be overcome more quickly. But it is clear that the problems they are tackling are very deep and embedded. And the 43 students in Iguala, I think, and the tragedy of their disappearance are a tragedy in and of themselves, but they are also a broader tragedy and that is why they had such resonance in Mexico for a system that still has not delivered justice to people.    So we see, I think, a response by the Mexican Government in terms of changes in whether it is the attorney general, changes in moving forward more aggressively on the transformation of the judicial system, which we are deeply involved in working with them on from an inquisitorial system to an oral adversarial system which is much more transparent, much quicker, fewer cases go to trial and that is very important because not everything must go to trial in terms of minor offenses, and fewer people being held in pretrial detention. As my colleague knows, in the states where USAID has worked on this kind of a transformation, Chihuahua and Nuevo Leon, the conviction rates have gone up and the pretrial detention rates have gone down.    So those are the kinds of things we need to continue to do, but it is a very, very difficult problem. And I think it is important that we remain engaged, and that is what the request level does. It focuses on moving on the Federal efforts that we have made to state levels which are critical. As you know, Mexico is a Federal system as we are, and while there may be 40,000 or so Federal police, there are over 400,000 state and local police in Mexico. And unless we work with the Mexicans on those levels as well, we can't really get at some of the problems going on there. And we feel that the Mexican Government is really ready for us to help in that level too.</t>
   </si>
   <si>
@@ -263,6 +287,12 @@
   </si>
   <si>
     <t>412526</t>
+  </si>
+  <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
+    <t>Ron</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you.    Secretary Jacobson, in your opinion have human rights abuses in Cuba increased since the President announced his change in policy in December?    Ambassador Jacobson. In my opinion they have continued. The number of short term detentions has been fairly high. And I don't know whether there has been an increased number of those detentions over the last 3 months, but it has been high over the last year.</t>
@@ -650,7 +680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,7 +688,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,1949 +710,2337 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
+        <v>54</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
+        <v>54</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G69" t="s">
+        <v>91</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G70" t="s">
+        <v>91</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G71" t="s">
+        <v>91</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G72" t="s">
+        <v>91</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G73" t="s">
+        <v>91</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>82</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G74" t="s">
+        <v>91</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G75" t="s">
+        <v>91</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G77" t="s">
+        <v>91</v>
+      </c>
       <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G79" t="s">
+        <v>91</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>82</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G81" t="s">
+        <v>91</v>
+      </c>
       <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>95</v>
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93912.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Ros-Lehtinen</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412186</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Sires</t>
@@ -680,7 +689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,7 +697,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,2334 +722,2560 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I37" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G69" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G70" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G71" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I71" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G72" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G74" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G75" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" t="s">
-        <v>24</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G77" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s">
-        <v>24</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G79" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s">
-        <v>24</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G81" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
